--- a/data/s_vals/2022/bush_matt.xlsx
+++ b/data/s_vals/2022/bush_matt.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.345670988543927</v>
+        <v>8.974608811992548</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.270704802648906</v>
+        <v>5.794181456641729</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1103462983815171</v>
+        <v>0.0006408296065709695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06596917852498385</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.739719134767675</v>
+        <v>0.6468712399813661</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.345670988543927</v>
+        <v>8.974608811992548</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2846480661742272</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1990121036566324</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D6" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.879849500964377</v>
+        <v>4.085649329452095</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C7" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.437919129376562</v>
+        <v>2.405841782574814</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C9" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E9" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C10" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.491783709146979</v>
+        <v>4.358119930609447</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C11" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E11" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.158759015710701</v>
+        <v>3.194529526351451</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/bush_matt.xlsx
+++ b/data/s_vals/2022/bush_matt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>8.974608811992548</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5.794181456641729</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>0.6468712399813661</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>8.974608811992548</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>4.085649329452095</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>2.405841782574814</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>4.358119930609447</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -713,6 +745,9 @@
       </c>
       <c r="G11" t="n">
         <v>3.194529526351451</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/bush_matt.xlsx
+++ b/data/s_vals/2022/bush_matt.xlsx
@@ -495,7 +495,7 @@
         <v>8.974608811992548</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -579,7 +579,7 @@
         <v>8.974608811992548</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">

--- a/data/s_vals/2022/bush_matt.xlsx
+++ b/data/s_vals/2022/bush_matt.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>8.974608811992548</v>
+        <v>8.656069925401464</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D3" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.794181456641729</v>
+        <v>5.507293877332936</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006408296065709695</v>
+        <v>0.0006075818656279264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002571899574220771</v>
+        <v>0.002658071450198252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6468712399813661</v>
+        <v>0.6862584789165291</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.974608811992548</v>
+        <v>8.656069925401464</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01293466051926884</v>
+        <v>0.01253208636536152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04071648406533734</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D6" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.085649329452095</v>
+        <v>3.810322793020256</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C7" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.405841782574814</v>
+        <v>2.433531715253719</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C10" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.358119930609447</v>
+        <v>4.327115817150455</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C11" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.194529526351451</v>
+        <v>3.169585166641744</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
